--- a/grokking_algorithms/algorithm-tracker.xlsx
+++ b/grokking_algorithms/algorithm-tracker.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>Binary Search</t>
   </si>
   <si>
     <t>25/04/2024</t>
+  </si>
+  <si>
+    <t>Selection Sort</t>
   </si>
 </sst>
 </file>
@@ -44,7 +47,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF9900"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -393,6 +396,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
